--- a/Modelos em Python/resultados_erros_prophet.xlsx
+++ b/Modelos em Python/resultados_erros_prophet.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.008635986678082</v>
+        <v>8.988434359412629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.434874750873162</v>
+        <v>19.87456947849598</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1334085280152677</v>
+        <v>0.5710347252978022</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1497831459172379</v>
+        <v>0.6377738242135205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.49424069284699</v>
+        <v>24.84818794562885</v>
       </c>
       <c r="D4" t="n">
-        <v>0.337804020213672</v>
+        <v>0.7921834624176162</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4881894803021679</v>
+        <v>0.8918214311469682</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.453516905768058</v>
+        <v>25.67488373140685</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3078436535497629</v>
+        <v>0.8437648774920694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.388964199150612</v>
+        <v>0.9747555842018369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.008635986678082</v>
+        <v>8.988434359412629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.434874750873162</v>
+        <v>19.87456947849598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1334085280152677</v>
+        <v>0.5710347252978022</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1497831459172379</v>
+        <v>0.6377738242135205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.49424069284699</v>
+        <v>24.84818794562885</v>
       </c>
       <c r="D8" t="n">
-        <v>0.337804020213672</v>
+        <v>0.7921834624176162</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4881894803021679</v>
+        <v>0.8918214311469682</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.453516905768058</v>
+        <v>25.67488373140685</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3078436535497629</v>
+        <v>0.8437648774920694</v>
       </c>
       <c r="E9" t="n">
-        <v>0.388964199150612</v>
+        <v>0.9747555842018369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.008635986678082</v>
+        <v>8.988434359412629</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.434874750873162</v>
+        <v>19.87456947849598</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1334085280152677</v>
+        <v>0.5710347252978022</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1497831459172379</v>
+        <v>0.6377738242135205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.49424069284699</v>
+        <v>24.84818794562885</v>
       </c>
       <c r="D12" t="n">
-        <v>0.337804020213672</v>
+        <v>0.7921834624176162</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4881894803021679</v>
+        <v>0.8918214311469682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.453516905768058</v>
+        <v>25.67488373140685</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3078436535497629</v>
+        <v>0.8437648774920694</v>
       </c>
       <c r="E13" t="n">
-        <v>0.388964199150612</v>
+        <v>0.9747555842018369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.008635986678082</v>
+        <v>8.988434359412629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.434874750873162</v>
+        <v>19.87456947849598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1334085280152677</v>
+        <v>0.5710347252978022</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1497831459172379</v>
+        <v>0.6377738242135205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.49424069284699</v>
+        <v>24.84818794562885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.337804020213672</v>
+        <v>0.7921834624176162</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4881894803021679</v>
+        <v>0.8918214311469682</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.453516905768058</v>
+        <v>25.67488373140685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3078436535497629</v>
+        <v>0.8437648774920694</v>
       </c>
       <c r="E17" t="n">
-        <v>0.388964199150612</v>
+        <v>0.9747555842018369</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_prophet.xlsx
+++ b/Modelos em Python/resultados_erros_prophet.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 horas à frente</t>
+          <t>1 horas à frente - Treinamento</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.988434359412629</v>
+        <v>21.32374758642121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.7688601235911339</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.7688601235911339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6 horas à frente</t>
+          <t>6 horas à frente - Treinamento</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.87456947849598</v>
+        <v>33.77580129049381</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5710347252978022</v>
+        <v>1.118004846550716</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6377738242135205</v>
+        <v>1.153219578295841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12 horas à frente</t>
+          <t>12 horas à frente - Treinamento</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.84818794562885</v>
+        <v>24.67964349757693</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7921834624176162</v>
+        <v>0.8352527958678043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8918214311469682</v>
+        <v>0.910117116551952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>24 horas à frente - Treinamento</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25.67488373140685</v>
+        <v>6.571425941238434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8437648774920694</v>
+        <v>0.231064497056882</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9747555842018369</v>
+        <v>0.2911885025421875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 horas à frente</t>
+          <t>1 horas à frente - Teste</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.988434359412629</v>
+        <v>18.31765953043914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4998950077996938</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4998950077996938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6 horas à frente</t>
+          <t>6 horas à frente - Teste</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.87456947849598</v>
+        <v>29.75237325010648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5710347252978022</v>
+        <v>0.9275206277797219</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6377738242135205</v>
+        <v>1.054461639867572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12 horas à frente</t>
+          <t>12 horas à frente - Teste</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24.84818794562885</v>
+        <v>23.91451855174337</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7921834624176162</v>
+        <v>0.8019740598483512</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8918214311469682</v>
+        <v>0.9707863677527012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>24 horas à frente - Teste</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25.67488373140685</v>
+        <v>5.038801975609742</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8437648774920694</v>
+        <v>0.1678786911565261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9747555842018369</v>
+        <v>0.1906524665254962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 horas à frente</t>
+          <t>1 horas à frente - Validação</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.988434359412629</v>
+        <v>14.03136821787605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4592556194200199</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4592556194200199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6 horas à frente</t>
+          <t>6 horas à frente - Validação</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.87456947849598</v>
+        <v>7.161351362934841</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5710347252978022</v>
+        <v>0.2464326094109754</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6377738242135205</v>
+        <v>0.2807440340664921</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12 horas à frente</t>
+          <t>12 horas à frente - Validação</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.84818794562885</v>
+        <v>14.60982505874073</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7921834624176162</v>
+        <v>0.5402120726403498</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8918214311469682</v>
+        <v>0.5906546290786119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>24 horas à frente - Validação</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25.67488373140685</v>
+        <v>13.40530878053406</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8437648774920694</v>
+        <v>0.4254127155422928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9747555842018369</v>
+        <v>0.557624607150262</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 horas à frente</t>
+          <t>1 horas à frente - Todos os Dados</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.988434359412629</v>
+        <v>17.20865479529284</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4667806311407086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4667806311407086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6 horas à frente</t>
+          <t>6 horas à frente - Todos os Dados</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19.87456947849598</v>
+        <v>29.52457545254435</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5710347252978022</v>
+        <v>0.9163942640098526</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6377738242135205</v>
+        <v>1.033971870378751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12 horas à frente</t>
+          <t>12 horas à frente - Todos os Dados</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.84818794562885</v>
+        <v>24.67861198793459</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7921834624176162</v>
+        <v>0.8303916600458967</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8918214311469682</v>
+        <v>1.000601240551842</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>24 horas à frente - Todos os Dados</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25.67488373140685</v>
+        <v>4.745074441757981</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8437648774920694</v>
+        <v>0.1543456534422934</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9747555842018369</v>
+        <v>0.1835179210799815</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_prophet.xlsx
+++ b/Modelos em Python/resultados_erros_prophet.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 horas à frente - Treinamento</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.32374758642121</v>
+        <v>8.927479558648725</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7688601235911339</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7688601235911339</v>
+        <v>0.2316605937404645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6 horas à frente - Treinamento</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.77580129049381</v>
+        <v>19.87638474985452</v>
       </c>
       <c r="D3" t="n">
-        <v>1.118004846550716</v>
+        <v>0.571003051784147</v>
       </c>
       <c r="E3" t="n">
-        <v>1.153219578295841</v>
+        <v>0.6378155829601485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12 horas à frente - Treinamento</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.67964349757693</v>
+        <v>24.87790782852682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8352527958678043</v>
+        <v>0.7930250167056411</v>
       </c>
       <c r="E4" t="n">
-        <v>0.910117116551952</v>
+        <v>0.8929105216016707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24 horas à frente - Treinamento</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.571425941238434</v>
+        <v>25.71636958073682</v>
       </c>
       <c r="D5" t="n">
-        <v>0.231064497056882</v>
+        <v>0.8449712644079667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2911885025421875</v>
+        <v>0.9762626006938974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 horas à frente - Teste</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.31765953043914</v>
+        <v>8.927479558648725</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4998950077996938</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4998950077996938</v>
+        <v>0.2316605937404645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6 horas à frente - Teste</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29.75237325010648</v>
+        <v>19.87638474985452</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9275206277797219</v>
+        <v>0.571003051784147</v>
       </c>
       <c r="E7" t="n">
-        <v>1.054461639867572</v>
+        <v>0.6378155829601485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12 horas à frente - Teste</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.91451855174337</v>
+        <v>24.87790782852682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8019740598483512</v>
+        <v>0.7930250167056411</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9707863677527012</v>
+        <v>0.8929105216016707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24 horas à frente - Teste</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.038801975609742</v>
+        <v>25.71636958073682</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1678786911565261</v>
+        <v>0.8449712644079667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1906524665254962</v>
+        <v>0.9762626006938974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 horas à frente - Validação</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.03136821787605</v>
+        <v>8.927479558648725</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4592556194200199</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4592556194200199</v>
+        <v>0.2316605937404645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6 horas à frente - Validação</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.161351362934841</v>
+        <v>19.87638474985452</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2464326094109754</v>
+        <v>0.571003051784147</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2807440340664921</v>
+        <v>0.6378155829601485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12 horas à frente - Validação</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.60982505874073</v>
+        <v>24.87790782852682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5402120726403498</v>
+        <v>0.7930250167056411</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5906546290786119</v>
+        <v>0.8929105216016707</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24 horas à frente - Validação</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13.40530878053406</v>
+        <v>25.71636958073682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4254127155422928</v>
+        <v>0.8449712644079667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.557624607150262</v>
+        <v>0.9762626006938974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 horas à frente - Todos os Dados</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.20865479529284</v>
+        <v>8.927479558648725</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4667806311407086</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4667806311407086</v>
+        <v>0.2316605937404645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6 horas à frente - Todos os Dados</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29.52457545254435</v>
+        <v>19.87638474985452</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9163942640098526</v>
+        <v>0.571003051784147</v>
       </c>
       <c r="E15" t="n">
-        <v>1.033971870378751</v>
+        <v>0.6378155829601485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12 horas à frente - Todos os Dados</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.67861198793459</v>
+        <v>24.87790782852682</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8303916600458967</v>
+        <v>0.7930250167056411</v>
       </c>
       <c r="E16" t="n">
-        <v>1.000601240551842</v>
+        <v>0.8929105216016707</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24 horas à frente - Todos os Dados</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.745074441757981</v>
+        <v>25.71636958073682</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1543456534422934</v>
+        <v>0.8449712644079667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1835179210799815</v>
+        <v>0.9762626006938974</v>
       </c>
     </row>
   </sheetData>
